--- a/Docs/4조 요구사항정의서.xlsx
+++ b/Docs/4조 요구사항정의서.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mjCrz+8l7GNBUxkKVREuT9tLMcJxg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mibQpOTzzVHv+e2tnjEH9JI3dsd7w=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>요구사항 정의서</t>
   </si>
@@ -39,169 +39,311 @@
     <t>비고</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>User Info</t>
-  </si>
-  <si>
-    <t>위치 정보 수집</t>
-  </si>
-  <si>
-    <t>GPS 정보 활용</t>
-  </si>
-  <si>
-    <t>추가 정보 수집</t>
-  </si>
-  <si>
-    <t>개인정보 제공 동의받고 수집, 광고에 활용</t>
-  </si>
-  <si>
-    <t>AD</t>
-  </si>
-  <si>
-    <t>광고 기능</t>
-  </si>
-  <si>
-    <t>사용자가 증가함에 따라 주 이용층을 겨냥한 타겟 광고를 통한 수익 창출</t>
-  </si>
-  <si>
-    <t>Data Collection</t>
-  </si>
-  <si>
-    <t>적조 데이터 수집</t>
-  </si>
-  <si>
-    <t>기상청) 적조 예측에 필요한 다양한 데이터(수온, 기온, 생물밀도, 강수량, 일조량, 운량) 수집</t>
-  </si>
-  <si>
-    <t>날씨 데이터 수집</t>
-  </si>
-  <si>
-    <t>기상청) 물때, 고저차, 풍속, 파고, 조위정보, 강우확률 등 해양 날씨 정보 데이터 수집</t>
-  </si>
-  <si>
-    <t>관광 데이터 수집</t>
-  </si>
-  <si>
-    <t>관광 명소, 맛집, 숙박 등 수집</t>
-  </si>
-  <si>
-    <t>Data Preprocessing</t>
-  </si>
-  <si>
-    <t>데이터 전처리</t>
-  </si>
-  <si>
-    <t>데이터 전처리 모듈을 통한 RawData 전처리 진행</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>적조 예측</t>
-  </si>
-  <si>
-    <t>내일 적조 예측</t>
-  </si>
-  <si>
-    <t>개발된 모델을 활용하여 적조 발생 유무와 유해 생물 여부, 당일을 포함한
-일주일간의 적조 밀도 예측정보 제공</t>
-  </si>
-  <si>
-    <t>일주일 적조 예측</t>
-  </si>
-  <si>
-    <t>적조 발생확률 제공</t>
-  </si>
-  <si>
-    <t>지도를 통해 남해안 지역별 적조 발생 확률 제공</t>
-  </si>
-  <si>
-    <t>적조 정보</t>
-  </si>
-  <si>
-    <t>적조 발생 해역</t>
-  </si>
-  <si>
-    <t>현재 적조 발생한 지역 알림</t>
-  </si>
-  <si>
-    <t>적조 유해성 정보</t>
-  </si>
-  <si>
-    <t>발생한 적조의 원인 생물 및 밀도 알림(유해성 측정)</t>
-  </si>
-  <si>
-    <t>금후 전망</t>
-  </si>
-  <si>
-    <t>해양수산부의 적조 전망 정보 알림</t>
-  </si>
-  <si>
-    <t>적조 이동 경로</t>
-  </si>
-  <si>
-    <t>해류정보를 통한 적조 이동방향 예측</t>
-  </si>
-  <si>
-    <t>날씨 정보</t>
-  </si>
-  <si>
-    <t>내일 해양 날씨 정보</t>
-  </si>
-  <si>
-    <t>기상청 데이터를 활용하여 물때, 고저차, 풍속, 파고, 조위정보,
-강우확률 등 해양 날씨 정보 제공</t>
-  </si>
-  <si>
-    <t>일주일 해양 날씨 정보</t>
-  </si>
-  <si>
-    <t>관광 정보</t>
-  </si>
-  <si>
-    <t>관광 명소 제공</t>
-  </si>
-  <si>
-    <t>사용자 위치기반으로 관광 명소 제공</t>
-  </si>
-  <si>
-    <t>주변 맛집 정보 제공</t>
-  </si>
-  <si>
-    <t>사용자 위치기반으로 맛집 정보 제공</t>
-  </si>
-  <si>
-    <t>숙박</t>
-  </si>
-  <si>
-    <t>사용자 위치기반으로 숙박 업소 제공</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Manage</t>
-  </si>
-  <si>
-    <t>DB 관리</t>
+    <t>담당자</t>
+  </si>
+  <si>
+    <t>적조 알라미 GUI</t>
+  </si>
+  <si>
+    <t>1. 정보 수집</t>
+  </si>
+  <si>
+    <t>1-1. 유저 위치정보 수집</t>
+  </si>
+  <si>
+    <t>GPS 기반 유저 위치 정보 수집</t>
+  </si>
+  <si>
+    <t>곽성화, 임재원</t>
+  </si>
+  <si>
+    <t>1-2. 유저 개인정보 수집</t>
+  </si>
+  <si>
+    <t>유저 동의를 바탕으로 추가 개인정보 수집</t>
+  </si>
+  <si>
+    <t>2. 정보 제공</t>
+  </si>
+  <si>
+    <t>2-1. 적조 정보 제공</t>
+  </si>
+  <si>
+    <t>적조 예측 정보와 현재 적조 발생 정보 알림 제공</t>
+  </si>
+  <si>
+    <t>2-2. 날씨 정보 제공</t>
+  </si>
+  <si>
+    <t>현재 날씨와 날씨 예측 정보 제공</t>
+  </si>
+  <si>
+    <t>2-3. 관광 정보 제공</t>
+  </si>
+  <si>
+    <t>위치기반의 관광 정보 제공</t>
+  </si>
+  <si>
+    <t>2-4. 광고 제공</t>
+  </si>
+  <si>
+    <t>사용자 개인정보 기반 광고 제공 및 수익 창출</t>
+  </si>
+  <si>
+    <t>데이터 수집</t>
+  </si>
+  <si>
+    <t>3. 기상청 Open API</t>
+  </si>
+  <si>
+    <t>3-1. 지상 기상 데이터 수집</t>
+  </si>
+  <si>
+    <t>강수량, 풍속, 일조량 등 지상에서 수집되는 기상 데이터 수집</t>
+  </si>
+  <si>
+    <t>이호진</t>
+  </si>
+  <si>
+    <t>3-2. 해양 기상 데이터 수집</t>
+  </si>
+  <si>
+    <t>수온, 기온 등 해양에서 수집되는 기상 데이터 수집</t>
+  </si>
+  <si>
+    <t>3-3. 날씨 데이터 수집</t>
+  </si>
+  <si>
+    <t>당일 및 일주일간의 일기예보 데이터 수집</t>
+  </si>
+  <si>
+    <t>4. 적조 정보 Open API</t>
+  </si>
+  <si>
+    <t>4-1. 적조 발생 해역 데이터 수집</t>
+  </si>
+  <si>
+    <t>적조가 발생한 해역의 위치 데이터 수집</t>
+  </si>
+  <si>
+    <t>4-2. 적조 유해성 데이터 수집</t>
+  </si>
+  <si>
+    <t>발생한 적조의 주요 생물과 밀도 데이터 수집</t>
+  </si>
+  <si>
+    <t>4-3. 적조 금후 전망 수집</t>
+  </si>
+  <si>
+    <t>발생한 적조의 금후 전망 데이터 수집</t>
+  </si>
+  <si>
+    <t>4-4. 적조 이동 경로 수집</t>
+  </si>
+  <si>
+    <t>풍속 등으로 예측한 적조의 이동 경로 데이터 수집</t>
+  </si>
+  <si>
+    <t>5. 관광 정보 시스템</t>
+  </si>
+  <si>
+    <t>5-1. 관광 명소 데이터 수집</t>
+  </si>
+  <si>
+    <t>사용자의 위치기반으로 주변의 관광 명소 데이터 수집</t>
+  </si>
+  <si>
+    <t>5-2. 주변 맛집 데이터 수집</t>
+  </si>
+  <si>
+    <t>사용자의 위치기반으로 주변의 맛집 데이터 수집</t>
+  </si>
+  <si>
+    <t>5-3. 숙박 업소 데이터 수집</t>
+  </si>
+  <si>
+    <t>사용자의 위치기반으로 주변의숙박 업소 데이터 수집</t>
+  </si>
+  <si>
+    <t>데이터 관리</t>
+  </si>
+  <si>
+    <t>6. 데이터 전처리</t>
+  </si>
+  <si>
+    <t>6-1. 기상 데이터 전처리</t>
+  </si>
+  <si>
+    <t>모델에 입력되어 예측값을 얻을 수 있는 형태로 데이터 전처리 진행</t>
+  </si>
+  <si>
+    <t>6-2. 적조 정보 전처리</t>
+  </si>
+  <si>
+    <t>적조 정보에서 필요한 데이터와 추가 예측 데이터 전처리 진행</t>
+  </si>
+  <si>
+    <t>6-3. 관광 데이터 전처리</t>
+  </si>
+  <si>
+    <t>관광 데이터에서 필요한 데이터 선별 전처리 진행</t>
+  </si>
+  <si>
+    <t>7. 관계형 DB</t>
+  </si>
+  <si>
+    <t>7-1. 전처리 데이터 적제</t>
+  </si>
+  <si>
+    <t>전처리 완료한 데이터 관계형 DB에 적제</t>
+  </si>
+  <si>
+    <t>데이터 예측 및 정제</t>
+  </si>
+  <si>
+    <t>8. 예측 Model</t>
+  </si>
+  <si>
+    <t>8-1. 모델 구성 및 학습</t>
+  </si>
+  <si>
+    <t>과거 5년 데이터 활용하여 모델 구성및 학습 진행</t>
+  </si>
+  <si>
+    <t>우남광</t>
+  </si>
+  <si>
+    <t>8-2. 전처리 데이터 입력</t>
+  </si>
+  <si>
+    <t>관계형 DB에 적제된 전처리 기상데이터 입력</t>
+  </si>
+  <si>
+    <t>8-3. 예측값 출력</t>
+  </si>
+  <si>
+    <t>적조 발생 예측값 출력</t>
+  </si>
+  <si>
+    <t>9. 정보 정제 모듈</t>
+  </si>
+  <si>
+    <t>9-1. 발생 적조 정보 정제</t>
+  </si>
+  <si>
+    <t>적조 정보 데이터를 사용자가 보기 좋게 정제</t>
+  </si>
+  <si>
+    <t>9-2. 날씨 정보 정제</t>
+  </si>
+  <si>
+    <t>날씨 정보 데이터를 사용자가 보기 좋게 정제</t>
+  </si>
+  <si>
+    <t>9-3. 관광 정보 정제</t>
+  </si>
+  <si>
+    <t>관광 정보 데이터를 사용자가 보기 좋게 정제</t>
+  </si>
+  <si>
+    <t>서비스 제공</t>
+  </si>
+  <si>
+    <t>10. 적조 예측 시스템</t>
+  </si>
+  <si>
+    <t>10-1. 다음날 적조 예측 정보 제공</t>
+  </si>
+  <si>
+    <t>다음날의 적조 발생 여부와 확률을 제공</t>
+  </si>
+  <si>
+    <t>10-2. 일주일 적조 예측 정보 제공</t>
+  </si>
+  <si>
+    <t>일주일간의 적조 발생 확률을 제공</t>
+  </si>
+  <si>
+    <t>10-3. 현재 발생 적조 정보 알림</t>
+  </si>
+  <si>
+    <t>정제된 발생 적조 정보 데이터를 알림형태로 제공</t>
+  </si>
+  <si>
+    <t>11. 날씨 정보 제공 시스템</t>
+  </si>
+  <si>
+    <t>11-1. 오늘 날씨 정보 제공</t>
+  </si>
+  <si>
+    <t>정제된 날씨 데이터에서 오늘 날씨 정보 제공</t>
+  </si>
+  <si>
+    <t>임재원</t>
+  </si>
+  <si>
+    <t>11-2. 일주일 날씨 정보 제공</t>
+  </si>
+  <si>
+    <t>정제된 날씨 데이터에서 일주일 날씨 정보 제공</t>
+  </si>
+  <si>
+    <t>12. 관광 정보 제공 시스템</t>
+  </si>
+  <si>
+    <t>12-1. 주변 관광 명소 정보 제공</t>
+  </si>
+  <si>
+    <t>정제된 관광 데이터에서 주변 관광 명소 정보 제공</t>
+  </si>
+  <si>
+    <t>곽성화</t>
+  </si>
+  <si>
+    <t>12-2. 주변 맛집 정보 제공</t>
+  </si>
+  <si>
+    <t>정제된 관광 데이터에서 주변 맛집 정보 제공</t>
+  </si>
+  <si>
+    <t>12-3. 주변 숙박 업소 정보 제공</t>
+  </si>
+  <si>
+    <t>정제된 관광 데이터에서 주변 숙박 업소 정보 제공</t>
+  </si>
+  <si>
+    <t>관리자</t>
+  </si>
+  <si>
+    <t>13. 사후 관리</t>
+  </si>
+  <si>
+    <t>13-1. DB 관리</t>
   </si>
   <si>
     <t>SQL을 사용한 관계형 데이터 베이스 구축으로 데이터의 축척 및 관리 편의성 제공</t>
   </si>
   <si>
-    <t>모델 유지보수</t>
+    <t>AS팀</t>
+  </si>
+  <si>
+    <t>13-2. 모델 유지보수</t>
   </si>
   <si>
     <t>무상 유지보수 기간 1년 제공, 추후 모델 리모델링 혹은 유지보수 유상 제공</t>
+  </si>
+  <si>
+    <t>13-3. 광고 관리</t>
+  </si>
+  <si>
+    <t>광고 게시 및 수입 관리에 대한 편의성 제공</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -228,22 +370,27 @@
     <font>
       <b/>
       <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Malgun Gothic"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
       <color theme="1"/>
       <name val="Malgun Gothic"/>
     </font>
     <font/>
     <font>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="&quot;Malgun Gothic&quot;"/>
+      <name val="Malgun Gothic"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,72 +403,9 @@
         <bgColor rgb="FF548135"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -343,19 +427,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -369,9 +440,25 @@
       </top>
     </border>
     <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="medium">
@@ -381,11 +468,56 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -398,98 +530,95 @@
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="13" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -710,14 +839,17 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.86"/>
-    <col customWidth="1" min="2" max="2" width="19.71"/>
-    <col customWidth="1" min="3" max="3" width="26.0"/>
+    <col customWidth="1" min="1" max="1" width="17.57"/>
+    <col customWidth="1" min="2" max="2" width="29.57"/>
+    <col customWidth="1" min="3" max="3" width="34.57"/>
     <col customWidth="1" min="4" max="4" width="89.0"/>
-    <col customWidth="1" min="5" max="26" width="8.71"/>
+    <col customWidth="1" min="5" max="5" width="9.57"/>
+    <col customWidth="1" min="6" max="6" width="8.71"/>
+    <col customWidth="1" min="7" max="7" width="15.71"/>
+    <col customWidth="1" min="8" max="26" width="8.71"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1">
+    <row r="1" ht="30.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -745,350 +877,626 @@
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8">
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" ht="17.25" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" ht="17.25" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" ht="17.25" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1">
+      <c r="A9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" ht="17.25" customHeight="1">
+      <c r="A10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9">
         <v>1.0</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" ht="17.25" customHeight="1">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="12" t="s">
+      <c r="F10" s="21"/>
+      <c r="G10" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" ht="17.25" customHeight="1">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" ht="17.25" customHeight="1">
+      <c r="A13" s="12"/>
+      <c r="B13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" ht="17.25" customHeight="1">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" ht="17.25" customHeight="1">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" ht="17.25" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" ht="17.25" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" ht="17.25" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" ht="17.25" customHeight="1">
+      <c r="A19" s="19"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" ht="17.25" customHeight="1">
+      <c r="A20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" ht="17.25" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" ht="17.25" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" ht="17.25" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1.0</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="26"/>
+    </row>
+    <row r="26" ht="17.25" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="29">
+        <v>1.0</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="26"/>
+    </row>
+    <row r="27" ht="17.25" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="16">
+        <v>2.0</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="13">
+    </row>
+    <row r="28" ht="17.25" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="16">
         <v>3.0</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" ht="17.25" customHeight="1">
-      <c r="B6" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="F28" s="22"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" ht="17.25" customHeight="1">
+      <c r="A29" s="19"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="16">
         <v>4.0</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" ht="17.25" customHeight="1">
-      <c r="B7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="F29" s="22"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" ht="17.25" customHeight="1">
+      <c r="A30" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="9">
         <v>1.0</v>
       </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" ht="17.25" customHeight="1">
-      <c r="B8" s="17"/>
-      <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="F30" s="21"/>
+      <c r="G30" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" customHeight="1">
+      <c r="A31" s="18"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="16">
         <v>1.0</v>
       </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="F31" s="22"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" ht="17.25" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="29">
+        <v>2.0</v>
+      </c>
+      <c r="F32" s="31"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" ht="17.25" customHeight="1">
+      <c r="A33" s="18"/>
+      <c r="B33" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="29">
+        <v>3.0</v>
+      </c>
+      <c r="F34" s="31"/>
+      <c r="G34" s="19"/>
+    </row>
+    <row r="35" ht="17.25" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" ht="17.25" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" ht="17.25" customHeight="1">
+      <c r="A38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E39" s="16">
         <v>1.0</v>
       </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" ht="17.25" customHeight="1">
-      <c r="B10" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" ht="17.25" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" ht="17.25" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="C12" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" ht="17.25" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="20">
-        <v>2.0</v>
-      </c>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" ht="17.25" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" ht="17.25" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" ht="17.25" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" ht="17.25" customHeight="1">
-      <c r="A18" s="17"/>
-      <c r="B18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="E18" s="20">
-        <v>3.0</v>
-      </c>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" ht="17.25" customHeight="1">
-      <c r="A19" s="17"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E19" s="8">
-        <v>3.0</v>
-      </c>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" ht="17.25" customHeight="1">
-      <c r="A20" s="17"/>
-      <c r="B20" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="20">
-        <v>4.0</v>
-      </c>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" ht="17.25" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="8">
-        <v>4.0</v>
-      </c>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" ht="17.25" customHeight="1">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" ht="17.25" customHeight="1">
-      <c r="A23" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" ht="17.25" customHeight="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" ht="17.25" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" ht="17.25" customHeight="1">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" ht="17.25" customHeight="1">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" ht="17.25" customHeight="1">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" ht="17.25" customHeight="1">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" ht="17.25" customHeight="1"/>
-    <row r="31" ht="17.25" customHeight="1"/>
-    <row r="32" ht="17.25" customHeight="1"/>
-    <row r="33" ht="17.25" customHeight="1"/>
-    <row r="34" ht="17.25" customHeight="1"/>
-    <row r="35" ht="17.25" customHeight="1"/>
-    <row r="36" ht="17.25" customHeight="1"/>
-    <row r="37" ht="17.25" customHeight="1"/>
-    <row r="38" ht="17.25" customHeight="1"/>
-    <row r="39" ht="17.25" customHeight="1"/>
-    <row r="40" ht="17.25" customHeight="1"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" ht="17.25" customHeight="1">
+      <c r="A40" s="19"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="E40" s="29">
+        <v>5.0</v>
+      </c>
+      <c r="F40" s="33"/>
+      <c r="G40" s="19"/>
+    </row>
     <row r="41" ht="17.25" customHeight="1">
+      <c r="A41" s="34"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
       <c r="B42" s="2"/>
@@ -1106,50 +1514,17 @@
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" ht="17.25" customHeight="1">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" ht="17.25" customHeight="1">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" ht="17.25" customHeight="1">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" ht="17.25" customHeight="1">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" ht="17.25" customHeight="1">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" ht="17.25" customHeight="1">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" ht="17.25" customHeight="1">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" ht="17.25" customHeight="1">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" ht="17.25" customHeight="1">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" ht="17.25" customHeight="1">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" ht="17.25" customHeight="1">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
+    <row r="46" ht="17.25" customHeight="1"/>
+    <row r="47" ht="17.25" customHeight="1"/>
+    <row r="48" ht="17.25" customHeight="1"/>
+    <row r="49" ht="17.25" customHeight="1"/>
+    <row r="50" ht="17.25" customHeight="1"/>
+    <row r="51" ht="17.25" customHeight="1"/>
+    <row r="52" ht="17.25" customHeight="1"/>
+    <row r="53" ht="17.25" customHeight="1"/>
+    <row r="54" ht="17.25" customHeight="1"/>
+    <row r="55" ht="17.25" customHeight="1"/>
+    <row r="56" ht="17.25" customHeight="1"/>
     <row r="57" ht="17.25" customHeight="1">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -4850,21 +5225,99 @@
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
     </row>
+    <row r="982" ht="17.25" customHeight="1">
+      <c r="B982" s="2"/>
+      <c r="C982" s="2"/>
+    </row>
+    <row r="983" ht="17.25" customHeight="1">
+      <c r="B983" s="2"/>
+      <c r="C983" s="2"/>
+    </row>
+    <row r="984" ht="17.25" customHeight="1">
+      <c r="B984" s="2"/>
+      <c r="C984" s="2"/>
+    </row>
+    <row r="985" ht="17.25" customHeight="1">
+      <c r="B985" s="2"/>
+      <c r="C985" s="2"/>
+    </row>
+    <row r="986" ht="17.25" customHeight="1">
+      <c r="B986" s="2"/>
+      <c r="C986" s="2"/>
+    </row>
+    <row r="987" ht="17.25" customHeight="1">
+      <c r="B987" s="2"/>
+      <c r="C987" s="2"/>
+    </row>
+    <row r="988" ht="17.25" customHeight="1">
+      <c r="B988" s="2"/>
+      <c r="C988" s="2"/>
+    </row>
+    <row r="989" ht="17.25" customHeight="1">
+      <c r="B989" s="2"/>
+      <c r="C989" s="2"/>
+    </row>
+    <row r="990" ht="17.25" customHeight="1">
+      <c r="B990" s="2"/>
+      <c r="C990" s="2"/>
+    </row>
+    <row r="991" ht="17.25" customHeight="1">
+      <c r="B991" s="2"/>
+      <c r="C991" s="2"/>
+    </row>
+    <row r="992" ht="17.25" customHeight="1">
+      <c r="B992" s="2"/>
+      <c r="C992" s="2"/>
+    </row>
+    <row r="993" ht="17.25" customHeight="1">
+      <c r="B993" s="2"/>
+      <c r="C993" s="2"/>
+    </row>
+    <row r="994" ht="17.25" customHeight="1">
+      <c r="B994" s="2"/>
+      <c r="C994" s="2"/>
+    </row>
+    <row r="995" ht="17.25" customHeight="1">
+      <c r="B995" s="2"/>
+      <c r="C995" s="2"/>
+    </row>
+    <row r="996" ht="17.25" customHeight="1">
+      <c r="B996" s="2"/>
+      <c r="C996" s="2"/>
+    </row>
+    <row r="997" ht="17.25" customHeight="1">
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="A11:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
+  <mergeCells count="27">
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A10:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A24:A29"/>
+    <mergeCell ref="G10:G23"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="G35:G37"/>
+    <mergeCell ref="G38:G40"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="B6:B9"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
